--- a/RDL.xlsx
+++ b/RDL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF221D-B079-40B3-991E-D020471E04AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B2445-A836-40B0-8695-CE21D96E1A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
+    <workbookView xWindow="5925" yWindow="5130" windowWidth="28800" windowHeight="15435" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="318">
   <si>
     <t>Titre</t>
   </si>
@@ -919,6 +919,75 @@
   </si>
   <si>
     <t>an enhanced intrinsic biometric in identifying people by photopleythsmography signal</t>
+  </si>
+  <si>
+    <t>Segmentation en 100 périodes</t>
+  </si>
+  <si>
+    <t>DCT coeef entre 4 et 20 Hz</t>
+  </si>
+  <si>
+    <t>Radom forest; KNN; DT</t>
+  </si>
+  <si>
+    <t>99%;98%;93%</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Wearable2019Lee</t>
+  </si>
+  <si>
+    <t>Farago</t>
+  </si>
+  <si>
+    <t>correlation2019Parago</t>
+  </si>
+  <si>
+    <t>PPG au doigt;</t>
+  </si>
+  <si>
+    <t>10 Hz</t>
+  </si>
+  <si>
+    <t>passe bande 05-5Hz</t>
+  </si>
+  <si>
+    <t>Segmentation pic à pic</t>
+  </si>
+  <si>
+    <t>development2018Sidek</t>
+  </si>
+  <si>
+    <t>(DB MIMIC II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterworth 2 </t>
+  </si>
+  <si>
+    <t>Segmentation en cycle unique</t>
+  </si>
+  <si>
+    <t>Points particulier de la cardioïde de l'APG</t>
+  </si>
+  <si>
+    <t>girishraosalanke2013an</t>
+  </si>
+  <si>
+    <t>girishraosalanke</t>
+  </si>
+  <si>
+    <t>37Hz</t>
+  </si>
+  <si>
+    <t>4 x 60s relax + 4x 60s stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPCA + supervised learning </t>
+  </si>
+  <si>
+    <t>Distance de Mahalanobis</t>
   </si>
 </sst>
 </file>
@@ -1652,101 +1721,101 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2064,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA0B3-8B1C-4628-BC76-3EDBB881B9B3}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,45 +2145,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="46" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="44"/>
+      <c r="O1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="40" t="s">
         <v>4</v>
       </c>
@@ -2127,7 +2196,7 @@
       <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="40" t="s">
         <v>10</v>
       </c>
@@ -2525,41 +2594,41 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="57">
         <v>2018</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="57">
         <v>10</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="57" t="s">
         <v>106</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M12" s="57" t="s">
         <v>107</v>
       </c>
       <c r="N12" s="3"/>
@@ -2568,147 +2637,147 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="50"/>
+      <c r="M13" s="52"/>
       <c r="N13" s="2"/>
       <c r="O13" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="50"/>
+      <c r="M14" s="52"/>
       <c r="N14" s="2"/>
       <c r="O14" s="5">
         <v>0.84</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="50"/>
+      <c r="M15" s="52"/>
       <c r="N15" s="2"/>
       <c r="O15" s="5">
         <v>0.94</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="50"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="2"/>
       <c r="O16" s="5">
         <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="50"/>
+      <c r="M17" s="52"/>
       <c r="N17" s="2"/>
       <c r="O17" s="5">
         <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="50"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="2"/>
       <c r="O18" s="5">
         <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="50"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="33"/>
       <c r="O19" s="37">
         <v>0.94</v>
@@ -2855,43 +2924,43 @@
       <c r="O23" s="37"/>
     </row>
     <row r="24" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="59">
         <v>2018</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="57">
         <v>50</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="57" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="M24" s="57" t="s">
         <v>139</v>
       </c>
       <c r="N24" s="3"/>
@@ -2900,84 +2969,84 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="50"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="2"/>
       <c r="O25" s="39">
         <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="50"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="2"/>
       <c r="O26" s="5">
         <v>0.90390000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M27" s="50"/>
+      <c r="M27" s="52"/>
       <c r="N27" s="2"/>
       <c r="O27" s="5">
         <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M28" s="53"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7">
         <v>0.94</v>
@@ -3021,104 +3090,104 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="47">
         <v>2018</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="47">
         <v>36</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="47" t="s">
         <v>106</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="68" t="s">
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="69"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="69"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
       <c r="L33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="70"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -3451,29 +3520,29 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="47">
         <v>2020</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66">
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47">
         <v>23</v>
       </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66">
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47">
         <v>40</v>
       </c>
-      <c r="K42" s="66" t="s">
+      <c r="K42" s="47" t="s">
         <v>67</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -3488,17 +3557,17 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="2" t="s">
         <v>180</v>
       </c>
@@ -3868,83 +3937,165 @@
       <c r="O52" s="41">
         <v>0.96</v>
       </c>
-      <c r="P52" s="73"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="B53" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="G53" s="2">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="5"/>
+      <c r="O53" s="41">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="54" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="B54" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="2">
+        <v>42</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="B55" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G55" s="2">
+        <v>10</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O55" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="B56" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" s="2">
+        <v>9</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="5"/>
+      <c r="O56" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
@@ -4305,17 +4456,39 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="K12:K19"/>
+    <mergeCell ref="M12:M19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="M24:M28"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="M30:M33"/>
     <mergeCell ref="N30:N33"/>
@@ -4330,39 +4503,17 @@
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="H30:H33"/>
     <mergeCell ref="G30:G33"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="M12:M19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RDL.xlsx
+++ b/RDL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B2445-A836-40B0-8695-CE21D96E1A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EA98BA-08CA-4050-BC0E-8987D4CA1977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="5130" windowWidth="28800" windowHeight="15435" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
+    <workbookView xWindow="6735" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="aquisition" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="319">
   <si>
     <t>Titre</t>
   </si>
@@ -894,9 +895,6 @@
     <t>PPG-based2019hwang</t>
   </si>
   <si>
-    <t>DATABASE A CHECK</t>
-  </si>
-  <si>
     <t>butterworth 4 0,1-18Hz</t>
   </si>
   <si>
@@ -988,6 +986,12 @@
   </si>
   <si>
     <t>Distance de Mahalanobis</t>
+  </si>
+  <si>
+    <t>BIOSEC TORONTO DB</t>
+  </si>
+  <si>
+    <t>ONLINE DATASET</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1589,11 +1593,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1682,9 +1701,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1716,12 +1732,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1730,6 +1740,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1815,6 +1869,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2133,86 +2217,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA0B3-8B1C-4628-BC76-3EDBB881B9B3}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="34" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="70" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="87"/>
+      <c r="N1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="72"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="40" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="40" t="s">
+      <c r="I2" s="66"/>
+      <c r="J2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2389,7 +2473,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2489,7 +2573,9 @@
       <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>42</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>74</v>
@@ -2555,7 +2641,7 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2564,71 +2650,71 @@
       <c r="C11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>2003</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>17</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33">
+      <c r="I11" s="32"/>
+      <c r="J11" s="32">
         <v>4</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="37">
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="36">
         <v>0.94</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="72">
         <v>2018</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="72">
         <v>10</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="72" t="s">
         <v>106</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="72" t="s">
         <v>107</v>
       </c>
       <c r="N12" s="3"/>
@@ -2637,149 +2723,149 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="52"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="2"/>
       <c r="O13" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="52"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="2"/>
       <c r="O14" s="5">
         <v>0.84</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="52"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="2"/>
       <c r="O15" s="5">
         <v>0.94</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="52"/>
+      <c r="M16" s="67"/>
       <c r="N16" s="2"/>
       <c r="O16" s="5">
         <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="2"/>
       <c r="O17" s="5">
         <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="2"/>
       <c r="O18" s="5">
         <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="33" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="52"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="37">
+      <c r="M19" s="67"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="36">
         <v>0.94</v>
       </c>
     </row>
@@ -2887,7 +2973,7 @@
       <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -2896,71 +2982,71 @@
       <c r="C23" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="32">
         <v>2013</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <v>8</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="32"/>
+      <c r="I23" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="37"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="74">
         <v>2018</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="72">
         <v>50</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="72" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="72" t="s">
         <v>139</v>
       </c>
       <c r="N24" s="3"/>
@@ -2969,84 +3055,84 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="52"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="39">
+      <c r="O25" s="38">
         <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="52"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="2"/>
       <c r="O26" s="5">
         <v>0.90390000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M27" s="52"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="2"/>
       <c r="O27" s="5">
         <v>0.94440000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
       <c r="L28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M28" s="58"/>
+      <c r="M28" s="73"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7">
         <v>0.94</v>
@@ -3056,7 +3142,7 @@
       <c r="A29" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3065,129 +3151,129 @@
       <c r="D29" s="1">
         <v>2018</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <v>23</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34">
+      <c r="I29" s="33"/>
+      <c r="J29" s="33">
         <v>40</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="38"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="37"/>
     </row>
     <row r="30" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="62">
         <v>2018</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="62">
         <v>36</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="62" t="s">
         <v>106</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="53" t="s">
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="68" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
       <c r="L31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="54"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
       <c r="L32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="54"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="55"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="70"/>
     </row>
     <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -3272,31 +3358,31 @@
       <c r="B36" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="32">
         <v>2020</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="32">
         <v>20</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="32">
         <v>20</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="32" t="s">
         <v>184</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -3317,27 +3403,27 @@
       <c r="B37" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <v>2016</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>23</v>
       </c>
-      <c r="H37" s="36"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <v>8</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="35" t="s">
         <v>190</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -3358,27 +3444,27 @@
       <c r="B38" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <v>2015</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="33">
         <v>10</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34" t="s">
+      <c r="H38" s="33"/>
+      <c r="I38" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34" t="s">
+      <c r="J38" s="33"/>
+      <c r="K38" s="33" t="s">
         <v>201</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -3478,106 +3564,108 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:15" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="28">
         <v>2018</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="28">
         <v>12</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2" t="s">
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="5">
+      <c r="N41" s="28"/>
+      <c r="O41" s="29">
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+    <row r="42" spans="1:15" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="97">
         <v>2020</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47">
+      <c r="E42" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97">
         <v>23</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47">
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97">
         <v>40</v>
       </c>
-      <c r="K42" s="47" t="s">
+      <c r="K42" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="5">
+      <c r="N42" s="28"/>
+      <c r="O42" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="2" t="s">
+    <row r="43" spans="1:15" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="28">
         <v>0</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="29">
         <v>100</v>
       </c>
     </row>
@@ -3728,7 +3816,7 @@
         <v>249</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="31">
+      <c r="N47" s="30">
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="O47" s="5"/>
@@ -3768,54 +3856,54 @@
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="41">
+      <c r="O48" s="40">
         <v>0.94</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:16" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="28">
         <v>2017</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="28">
         <v>42</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="28">
         <v>10</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="O49" s="42">
+      <c r="O49" s="90">
         <v>0.99839999999999995</v>
       </c>
     </row>
@@ -3854,119 +3942,119 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:16" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="28">
         <v>2016</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="28">
         <v>30</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="42">
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="90">
         <v>0.995</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:16" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="28">
         <v>2019</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="K52" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="L52" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M52" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N52" s="31">
+      <c r="N52" s="92">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O52" s="41">
+      <c r="O52" s="91">
         <v>0.96</v>
       </c>
-      <c r="P52" s="43"/>
+      <c r="P52" s="93"/>
     </row>
     <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="2">
         <v>2019</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
         <v>30</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I53" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
@@ -3974,19 +4062,19 @@
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="41">
+      <c r="O53" s="40">
         <v>0.98</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>292</v>
+      <c r="A54" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D54" s="2">
         <v>2019</v>
@@ -4003,79 +4091,79 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B55" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="28">
+        <v>2018</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="28">
+        <v>10</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G55" s="2">
-        <v>10</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="41">
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="91">
         <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="D56" s="2">
         <v>2013</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="G56" s="2">
         <v>9</v>
@@ -4083,13 +4171,13 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -4519,4 +4607,971 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C7E5FC-18D3-4093-BCBE-F9AAD34A46FF}">
+  <dimension ref="A1:F182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="51"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="51"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="51"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="51"/>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="51"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="51"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="51"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="57"/>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="57"/>
+    </row>
+    <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="57"/>
+    </row>
+    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="51"/>
+    </row>
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="51"/>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="51"/>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="51"/>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="58"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="58"/>
+    </row>
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="58"/>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="51"/>
+    </row>
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="57"/>
+    </row>
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="57"/>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="57"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="57"/>
+    </row>
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="51"/>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="51"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="C36" s="51"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="C37" s="51"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="51"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="51"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="51"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="51"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="57"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="57"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="C44" s="51"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="C45" s="51"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="C46" s="51"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="C47" s="51"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="51"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="51"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="51"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="51"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="53"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="51"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="51"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="51"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="51"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="55"/>
+      <c r="B70" s="55"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="55"/>
+      <c r="B94" s="55"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="55"/>
+      <c r="B106" s="55"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="55"/>
+      <c r="B115" s="55"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="55"/>
+      <c r="B117" s="55"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="55"/>
+      <c r="B118" s="55"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="55"/>
+      <c r="B119" s="55"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="55"/>
+      <c r="B120" s="55"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="55"/>
+      <c r="B122" s="55"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="55"/>
+      <c r="B123" s="55"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="55"/>
+      <c r="B124" s="55"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="55"/>
+      <c r="B125" s="55"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="55"/>
+      <c r="B127" s="55"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="55"/>
+      <c r="B128" s="55"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="55"/>
+      <c r="B129" s="55"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="55"/>
+      <c r="B130" s="55"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="55"/>
+      <c r="B131" s="55"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="55"/>
+      <c r="B132" s="55"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="55"/>
+      <c r="B133" s="55"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="55"/>
+      <c r="B134" s="55"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="55"/>
+      <c r="B135" s="55"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="55"/>
+      <c r="B136" s="55"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="55"/>
+      <c r="B137" s="55"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="55"/>
+      <c r="B138" s="55"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="55"/>
+      <c r="B139" s="55"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="55"/>
+      <c r="B140" s="55"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="55"/>
+      <c r="B141" s="55"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="55"/>
+      <c r="B142" s="55"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="55"/>
+      <c r="B143" s="55"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="55"/>
+      <c r="B144" s="55"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="55"/>
+      <c r="B146" s="55"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="55"/>
+      <c r="B147" s="55"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="55"/>
+      <c r="B148" s="55"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="55"/>
+      <c r="B149" s="55"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="55"/>
+      <c r="B150" s="55"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="55"/>
+      <c r="B151" s="55"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="55"/>
+      <c r="B152" s="55"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="55"/>
+      <c r="B153" s="55"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="55"/>
+      <c r="B154" s="55"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="55"/>
+      <c r="B155" s="55"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="55"/>
+      <c r="B156" s="55"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="55"/>
+      <c r="B157" s="55"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="55"/>
+      <c r="B158" s="55"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="55"/>
+      <c r="B159" s="55"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="55"/>
+      <c r="B160" s="55"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="55"/>
+      <c r="B161" s="55"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="55"/>
+      <c r="B162" s="55"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="55"/>
+      <c r="B163" s="55"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="55"/>
+      <c r="B164" s="55"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="55"/>
+      <c r="B165" s="55"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="55"/>
+      <c r="B166" s="55"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="55"/>
+      <c r="B167" s="55"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="55"/>
+      <c r="B168" s="55"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="55"/>
+      <c r="B169" s="55"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="55"/>
+      <c r="B170" s="55"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="55"/>
+      <c r="B171" s="55"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="55"/>
+      <c r="B172" s="55"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="55"/>
+      <c r="B173" s="55"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="55"/>
+      <c r="B174" s="55"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="55"/>
+      <c r="B175" s="55"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="55"/>
+      <c r="B176" s="55"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="55"/>
+      <c r="B177" s="55"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="55"/>
+      <c r="B178" s="55"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="55"/>
+      <c r="B179" s="55"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="55"/>
+      <c r="B180" s="55"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="55"/>
+      <c r="B182" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RDL.xlsx
+++ b/RDL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B7377D-0C10-49E4-92A5-6950F373FC53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94C4DF-F7FB-4AA8-AF76-44117E2BCA21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19035" windowHeight="15435" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1397,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1502,9 +1502,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1834,24 +1831,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA0B3-8B1C-4628-BC76-3EDBB881B9B3}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="20.5703125" style="1"/>
+    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1885,7 @@
       </c>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>248</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="345" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>240</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>289</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="390" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>182</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>269</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>159</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>0.99980000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>165</v>
       </c>
@@ -2501,7 +2500,7 @@
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>252</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>0.99839999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>86</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>86</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>86</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>86</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>86</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>86</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>86</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>86</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>130</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>0.92149999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>130</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>130</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>0.90390000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>130</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>130</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>149</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>149</v>
       </c>
@@ -3046,7 +3045,7 @@
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
     </row>
-    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>149</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
     </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>149</v>
       </c>
@@ -3100,7 +3099,7 @@
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
     </row>
-    <row r="37" spans="1:15" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>213</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>230</v>
       </c>
@@ -3168,7 +3167,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>262</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>288</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="12" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>279</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>286</v>
       </c>
@@ -3396,8 +3395,8 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+    <row r="45" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
         <v>287</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3431,7 +3430,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>114</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="12" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
@@ -3526,7 +3525,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:16" s="12" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>173</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="12" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>208</v>
       </c>
@@ -3610,7 +3609,7 @@
       </c>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>218</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>223</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="12" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="12" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -3727,7 +3726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -3772,29 +3771,29 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>82</v>
       </c>
@@ -3817,7 +3816,7 @@
       </c>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
@@ -3826,7 +3825,7 @@
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3835,7 +3834,7 @@
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>123</v>
       </c>
@@ -3844,7 +3843,7 @@
       </c>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
@@ -3853,7 +3852,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>289</v>
       </c>
@@ -3862,7 +3861,7 @@
       </c>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3871,7 +3870,7 @@
       </c>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -3880,7 +3879,7 @@
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>63</v>
       </c>
@@ -3889,7 +3888,7 @@
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>190</v>
       </c>
@@ -3898,7 +3897,7 @@
       </c>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -3907,7 +3906,7 @@
       </c>
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>199</v>
       </c>
@@ -3916,7 +3915,7 @@
       </c>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>234</v>
       </c>
@@ -3925,7 +3924,7 @@
       </c>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>269</v>
       </c>
@@ -3934,7 +3933,7 @@
       </c>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -3943,7 +3942,7 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -3952,7 +3951,7 @@
       </c>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>252</v>
       </c>
@@ -3961,7 +3960,7 @@
       </c>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -3970,7 +3969,7 @@
       </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -3979,7 +3978,7 @@
       </c>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>141</v>
       </c>
@@ -3988,7 +3987,7 @@
       </c>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>149</v>
       </c>
@@ -3997,7 +3996,7 @@
       </c>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>213</v>
       </c>
@@ -4006,7 +4005,7 @@
       </c>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>288</v>
       </c>
@@ -4015,7 +4014,7 @@
       </c>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -4024,7 +4023,7 @@
       </c>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -4033,7 +4032,7 @@
       </c>
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -4042,7 +4041,7 @@
       </c>
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>279</v>
       </c>
@@ -4051,7 +4050,7 @@
       </c>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>286</v>
       </c>
@@ -4060,7 +4059,7 @@
       </c>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>287</v>
       </c>
@@ -4069,7 +4068,7 @@
       </c>
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -4078,7 +4077,7 @@
       </c>
       <c r="C32" s="30"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>218</v>
       </c>
@@ -4087,7 +4086,7 @@
       </c>
       <c r="C33" s="30"/>
     </row>
-    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>223</v>
       </c>
@@ -4096,7 +4095,7 @@
       </c>
       <c r="C34" s="24"/>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>173</v>
       </c>
@@ -4105,619 +4104,619 @@
       </c>
       <c r="C35" s="24"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="C36" s="24"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="C37" s="24"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C38" s="24"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C39" s="24"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C40" s="24"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="24"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="C44" s="24"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="24"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="24"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="25"/>
       <c r="C54" s="24"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="24"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="24"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
     </row>

--- a/RDL.xlsx
+++ b/RDL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94C4DF-F7FB-4AA8-AF76-44117E2BCA21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31B18E-8318-4DC7-B7EB-5F650A1CA74E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
+    <workbookView xWindow="-9240" yWindow="8295" windowWidth="19035" windowHeight="15435" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1831,26 +1831,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA0B3-8B1C-4628-BC76-3EDBB881B9B3}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="20.5546875" style="1"/>
+    <col min="3" max="3" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>248</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>240</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>289</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>182</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>269</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>159</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.99980000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>165</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>252</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0.99839999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>86</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>86</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>86</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>86</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>86</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>86</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>86</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>86</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>130</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.92149999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>130</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>130</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.90390000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>130</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>130</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>149</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>149</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
     </row>
-    <row r="35" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>149</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
     </row>
-    <row r="36" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>149</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
     </row>
-    <row r="37" spans="1:15" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>213</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>230</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>262</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>288</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="12" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>279</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>286</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
         <v>287</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="12" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>114</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="12" customFormat="1" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:16" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>173</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="12" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="12" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>208</v>
       </c>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>218</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>223</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="12" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="12" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -3726,7 +3726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -3771,13 +3771,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="42"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="23" t="s">
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>82</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>123</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>289</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>63</v>
       </c>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>190</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>199</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>234</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>269</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>252</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>141</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>149</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>213</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>288</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>279</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>286</v>
       </c>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>287</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C32" s="30"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>218</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C33" s="30"/>
     </row>
-    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>223</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="C34" s="24"/>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>173</v>
       </c>
@@ -4104,619 +4104,619 @@
       </c>
       <c r="C35" s="24"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="C36" s="24"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="C37" s="24"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C38" s="24"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C39" s="24"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C40" s="24"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="24"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="C44" s="24"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="24"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="24"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="25"/>
       <c r="C54" s="24"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="24"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="24"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
     </row>

--- a/RDL.xlsx
+++ b/RDL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31B18E-8318-4DC7-B7EB-5F650A1CA74E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD2B7F-1FB5-4D52-85C3-201EB929140E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9240" yWindow="8295" windowWidth="19035" windowHeight="15435" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{54835179-5A23-43FD-AB91-DDA2A9A3F7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1831,26 +1831,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CA0B3-8B1C-4628-BC76-3EDBB881B9B3}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="20.5703125" style="1"/>
+    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>248</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>240</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>289</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>182</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>269</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>159</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.99980000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>165</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>252</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0.99839999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>86</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>86</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>86</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>86</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>86</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>86</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>86</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>86</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>130</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.92149999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>130</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>130</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.90390000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>130</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>130</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>149</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>149</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
     </row>
-    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>149</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
     </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
         <v>149</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
     </row>
-    <row r="37" spans="1:15" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>213</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>230</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>262</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>288</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="12" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="12" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>279</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>286</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>287</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="12" customFormat="1" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>114</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="12" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:16" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>173</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="12" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="12" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>208</v>
       </c>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>218</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>223</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="12" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="12" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -3726,7 +3726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -3771,13 +3771,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="42"/>
     </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="23" t="s">
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>82</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>123</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>289</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>63</v>
       </c>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>190</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>199</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>234</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>269</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>252</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>141</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>149</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>213</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>288</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>279</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>286</v>
       </c>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>287</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C32" s="30"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>218</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C33" s="30"/>
     </row>
-    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>223</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="C34" s="24"/>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>173</v>
       </c>
@@ -4104,619 +4104,619 @@
       </c>
       <c r="C35" s="24"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="C36" s="24"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="C37" s="24"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C38" s="24"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C39" s="24"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C40" s="24"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C41" s="24"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="C44" s="24"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="24"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="24"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="25"/>
       <c r="C54" s="24"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="24"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="24"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="24"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
     </row>
